--- a/biology/Médecine/Syndrome_L1/Syndrome_L1.xlsx
+++ b/biology/Médecine/Syndrome_L1/Syndrome_L1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  syndrome L1 regroupe les manifestations liées à la mutation du gène L1CAM 
 Il est caractérisé par l’association des traits suivants :
@@ -522,7 +534,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mutation du gène L1CAM situé au niveau du locus q28-du chromosome  X  codant la protéine L1 d’adhésion cellulaire des neurones. Les différents mutations affectant le gène L1CAM ont été regroupées en quatre catégories responsables de phénotype différent.</t>
         </is>
@@ -552,7 +566,9 @@
           <t>Incidence &amp; Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’hydrocéphalie liée à l'X est l’hydrocéphalie d’origine génétique la plus fréquente avec une prévalence de 1/30 000 ;
 Les autres manifestations sont extrêmement rares.</t>
@@ -585,18 +601,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garçon
-Hydrocéphalie 
+          <t>Garçon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hydrocéphalie 
 Parfois apparue in utero, donc diagnosticable par échographie. Cette hydrocéphalie est parfois responsable du décès in utero ou peu de temps après la naissance ;
 Retard mental
 Il n’y a pas de corrélation entre l’importance de l’hydrocéphalie et le retard mental. Dans le syndrome M.A.S.A, le retard mental est de léger à moyen.
 Spasticité
 Au début de la vie, il existe une hypotonie des membres inférieures qui évolue en hypertonie à la fin de la première année de vie. Cette hypertonie s’accompagne d’atrophie musculaire responsable de la démarche trainante des enfants.
 Adduction des pouces 
-Position permanente des pouces dirigés vers l’intérieur.
-Fille
-Les filles porteuses de la mutation ne présentent généralement qu’une adduction des pouces.
-</t>
+Position permanente des pouces dirigés vers l’intérieur.</t>
         </is>
       </c>
     </row>
@@ -621,63 +639,294 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les filles porteuses de la mutation ne présentent généralement qu’une adduction des pouces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clinique
-Le diagnostic de syndrome L1 ne se pose que chez un garçon.
-Hydrocéphalie liée à l'X
-Hydrocéphalie importante
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic de syndrome L1 ne se pose que chez un garçon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydrocéphalie liée à l'X</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hydrocéphalie importante
 Adduction des pouces pour plus de 50 % des patients
 Retard mental sévère
-Spasticité mis en évidence par études des réflexes
-Syndrome M.A.S.A
-Retard mental léger à moyen
+Spasticité mis en évidence par études des réflexes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Syndrome M.A.S.A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Retard mental léger à moyen
 Acquisition tardive de la parole
 Hypotonie musculaire puis hypertonie
 Dilatation du troisième ventricule
-Adduction des pouces
-Paraplégie spastique familiale de type 1
+Adduction des pouces</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Paraplégie spastique familiale de type 1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Retard mental léger à moyen
+Spasticité des membres inférieurs
+Pas d’anomalie du cerveau en I.R.M</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Agénésie du corps calleux liée à l’X</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dysgénésie du corps calleux
 Retard mental léger à moyen
-Spasticité des membres inférieurs
-Pas d’anomalie du cerveau en I.R.M
-Agénésie du corps calleux liée à l’X
-Dysgénésie du corps calleux
-Retard mental léger à moyen
-Spasticité des membres inférieurs
-Génétique
-La recherche des mutations est possible par séquençage ou par balayage de mutation.
+Spasticité des membres inférieurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche des mutations est possible par séquençage ou par balayage de mutation.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Chacun des signes de la maladie doit être discuté :
 Hydrocéphalie
@@ -687,93 +936,99 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Mode transmission</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission récessive liée à l’X.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_L1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:303350   [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:307000  [2]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [3]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:303350   
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:307000  
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
